--- a/C61/Phase 2/3_Planification.xlsx
+++ b/C61/Phase 2/3_Planification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\C61-ProjetSynthese\C61\Phase 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9452A0F8-9D64-48C3-887A-444F1DFBABF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F46303-3E77-4858-A549-1F5CA8667BD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="94">
   <si>
     <t>Dany Viens</t>
   </si>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1152,7 @@
     <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -1230,11 +1230,9 @@
         <v>1</v>
       </c>
       <c r="K9" s="27">
-        <v>80</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>89</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C10" s="20">
@@ -1325,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="27">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="L12" s="27" t="s">
         <v>89</v>
@@ -1451,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="27">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L16" s="27" t="s">
         <v>89</v>
